--- a/Instances/G0041421_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue6_c2.xlsx
+++ b/Instances/G0041421_NonStationary_b2_fe25_en_rk50_ll0_l20_HTrue6_c2.xlsx
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1854,7 +1854,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>12.15906700721154</v>
+        <v>8.408420138888889</v>
       </c>
       <c r="I2" t="n">
         <v>80</v>
@@ -1886,7 +1886,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>6.640643780048077</v>
+        <v>3.588541666666667</v>
       </c>
       <c r="I3" t="n">
         <v>140</v>
@@ -1918,7 +1918,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>8.022254356971153</v>
+        <v>8.485677083333334</v>
       </c>
       <c r="I4" t="n">
         <v>120</v>
@@ -1950,7 +1950,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>18.21300330528846</v>
+        <v>12.97699652777778</v>
       </c>
       <c r="I5" t="n">
         <v>60</v>
@@ -2162,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2312,16 +2312,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2347,16 +2347,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="E6" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2382,16 +2382,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2417,16 +2417,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2452,16 +2452,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2514,146 +2514,6 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>74</v>
-      </c>
-      <c r="C11" t="n">
-        <v>43</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47</v>
-      </c>
-      <c r="E11" t="n">
-        <v>75</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>71</v>
-      </c>
-      <c r="C12" t="n">
-        <v>38</v>
-      </c>
-      <c r="D12" t="n">
-        <v>62</v>
-      </c>
-      <c r="E12" t="n">
-        <v>125</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>52</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>46</v>
-      </c>
-      <c r="E13" t="n">
-        <v>114</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>86</v>
-      </c>
-      <c r="C14" t="n">
-        <v>55</v>
-      </c>
-      <c r="D14" t="n">
-        <v>51</v>
-      </c>
-      <c r="E14" t="n">
-        <v>130</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2668,7 +2528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2818,16 +2678,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.125</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3.625</v>
+        <v>3.25</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>8.625</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>9.875</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2853,16 +2713,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5625</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>8.625</v>
+        <v>2.625</v>
       </c>
       <c r="D6" t="n">
-        <v>15.375</v>
+        <v>9.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>20.8125</v>
+        <v>20.0625</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2888,16 +2748,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>16.40625</v>
       </c>
       <c r="C7" t="n">
-        <v>8.75</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="n">
-        <v>9.1875</v>
+        <v>16.1875</v>
       </c>
       <c r="E7" t="n">
-        <v>26.6875</v>
+        <v>0.875</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2923,16 +2783,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.328125</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.5</v>
+        <v>6.09375</v>
       </c>
       <c r="D8" t="n">
-        <v>11.71875</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>35.625</v>
+        <v>26.71875</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2958,16 +2818,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3984375</v>
+        <v>24.703125</v>
       </c>
       <c r="C9" t="n">
-        <v>13.8046875</v>
+        <v>9.4453125</v>
       </c>
       <c r="D9" t="n">
-        <v>5.8125</v>
+        <v>12.59375</v>
       </c>
       <c r="E9" t="n">
-        <v>25.1875</v>
+        <v>33.421875</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2993,16 +2853,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1640625</v>
+        <v>11.56640625</v>
       </c>
       <c r="C10" t="n">
-        <v>5.16796875</v>
+        <v>7.3828125</v>
       </c>
       <c r="D10" t="n">
-        <v>7.3828125</v>
+        <v>14.02734375</v>
       </c>
       <c r="E10" t="n">
-        <v>11.8125</v>
+        <v>25.83984375</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -3020,146 +2880,6 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>18.35546875</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.666015625</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.658203125</v>
-      </c>
-      <c r="E11" t="n">
-        <v>18.603515625</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17.6806640625</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9.462890625</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15.439453125</v>
-      </c>
-      <c r="E12" t="n">
-        <v>31.1279296875</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12.974609375</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4.990234375</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.4775390625</v>
-      </c>
-      <c r="E13" t="n">
-        <v>28.4443359375</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21.47900390625</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.736572265625</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.737548828125</v>
-      </c>
-      <c r="E14" t="n">
-        <v>32.46826171875</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3192,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>520</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3200,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>692</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3208,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1084</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
